--- a/biology/Botanique/Pin_argenté/Pin_argenté.xlsx
+++ b/biology/Botanique/Pin_argenté/Pin_argenté.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pin_argent%C3%A9</t>
+          <t>Pin_argenté</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pinus monticola
 Le Pin argenté (Pinus monticola) est une espèce d'arbres appartenant au genre Pinus et à la famille des Pinacées. Il pousse dans les montagnes de l'ouest de l'Amérique du Nord, en particulier dans les Montagnes Rocheuses, la chaîne des Cascades, la Sierra Nevada et les chaînes côtières du Pacifique.
